--- a/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/additive/ranking_test4/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.637</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.875</v>
+        <v>16.202</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.797</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.032</v>
+        <v>12.556</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.949</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.58333935450335</v>
+        <v>13.12607512252175</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.21552302667902</v>
+        <v>13.03334958783635</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.52187918933571</v>
+        <v>23.8029845806211</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.663032490761662</v>
+        <v>4.174843552742537</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.54803276929313</v>
+        <v>18.72596348099763</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.08460088913396</v>
+        <v>21.83150715568599</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.147113679002878</v>
+        <v>7.753661669285421</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.19388424316492</v>
+        <v>33.17613571645684</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.89802553202598</v>
+        <v>33.99800508331182</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.40026134593844</v>
+        <v>14.12386533164926</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.27018859146416</v>
+        <v>16.97438473188605</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.03848725216121</v>
+        <v>17.81733965311329</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.25184621800743</v>
+        <v>22.01738757844625</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.85328782251352</v>
+        <v>19.88131277896616</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.86068704316705</v>
+        <v>34.68366290992889</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.84517189913673</v>
+        <v>13.04796007953637</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.33937902360264</v>
+        <v>24.3225131566429</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.39517292083355</v>
+        <v>34.95746028282616</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.363283864774008</v>
+        <v>7.253263671157303</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.88754163530066</v>
+        <v>13.80895853020567</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.92066785818015</v>
+        <v>16.61983487698027</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.557556613622776</v>
+        <v>3.996009875099752</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.25562996401079</v>
+        <v>19.41105508765754</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.90537421159781</v>
+        <v>20.08281604675427</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.14247478707338</v>
+        <v>24.43533626711068</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.79359428737834</v>
+        <v>25.06818933010191</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.685308531450232</v>
+        <v>4.122158947034269</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.6891392256134</v>
+        <v>29.54346857199609</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.74566819978939</v>
+        <v>30.62077705374976</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.498822502167922</v>
+        <v>7.933967039684049</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37.89301286919776</v>
+        <v>38.04537523248896</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.54798141000873</v>
+        <v>37.87559320836407</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.07027379602436</v>
+        <v>39.47186063104445</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.9004103700025</v>
+        <v>43.35217653838782</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.3188783174293</v>
+        <v>45.04220378893598</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.50754741439759</v>
+        <v>34.45518058878675</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>42.17896987638468</v>
+        <v>42.21005553151102</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.76261229049982</v>
+        <v>42.95608744521714</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.40236479152015</v>
+        <v>19.19117458609275</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.50795962216446</v>
+        <v>32.11957959701831</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.43892736621562</v>
+        <v>36.3418675913569</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.820551484185344</v>
+        <v>7.994950837385446</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.88964099111887</v>
+        <v>33.22402908232363</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.60802990155969</v>
+        <v>41.44302127806592</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50.78204164550898</v>
+        <v>49.93996844040696</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.677808367515635</v>
+        <v>8.39268645085567</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.05806593069808</v>
+        <v>19.59793220443699</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.27771463051511</v>
+        <v>23.75489742401371</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.358761777316516</v>
+        <v>2.952321792875473</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.55877776000161</v>
+        <v>29.69863082407051</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.8160954240605</v>
+        <v>31.06093414668601</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.414617798537382</v>
+        <v>8.053947998936568</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>41.58926632704146</v>
+        <v>42.00266881059564</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43.61749578499948</v>
+        <v>43.85586185107852</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.02692752245429</v>
+        <v>44.1678046746144</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.99463089346139</v>
+        <v>46.35041528981159</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.93496576519596</v>
+        <v>51.86319801215267</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.41423689846141</v>
+        <v>15.26064943763634</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.18040405578876</v>
+        <v>32.54696768996814</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.04672638603363</v>
+        <v>38.61436754200666</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.56538828389082</v>
+        <v>11.82886426527086</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.4243430060834</v>
+        <v>30.25757776310619</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.7521792671987</v>
+        <v>35.7601130096609</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.978711223143939</v>
+        <v>7.718709376010491</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.14010245505141</v>
+        <v>26.85761846211134</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.24917046586224</v>
+        <v>39.99607567221287</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.191326253686185</v>
+        <v>5.595501928430963</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>43.44604348268327</v>
+        <v>42.72340903136389</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5.439758639949851</v>
+        <v>6.33111978495619</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>12.62027885389393</v>
+        <v>13.75858060735952</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.89682064735236</v>
+        <v>21.57433165228981</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.006476612591321</v>
+        <v>3.616076874596004</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.50712963155175</v>
+        <v>27.73702645812894</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.48894695520877</v>
+        <v>33.58313598790672</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3.677137140266016</v>
+        <v>4.277663615199838</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.56606028808918</v>
+        <v>39.61255270675828</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.30834774075063</v>
+        <v>42.59923383567389</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.54580559296539</v>
+        <v>39.49494807718406</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.29342890363195</v>
+        <v>41.45799371818545</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.23541742548547</v>
+        <v>47.14878234228731</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14.98882371042536</v>
+        <v>14.96326641574022</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.82074753329448</v>
+        <v>27.64336862218594</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.77194990592311</v>
+        <v>40.10222542610795</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8.549183429297731</v>
+        <v>8.99140795961226</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.84196167692406</v>
+        <v>25.84397489082955</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.92625593783326</v>
+        <v>33.96469422253848</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7.96847448751075</v>
+        <v>7.999846996565051</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.50954314506141</v>
+        <v>26.21132906085852</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>40.52356913129495</v>
+        <v>40.06320001112991</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.91417691794878</v>
+        <v>3.482791047668442</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>37.88045080061065</v>
+        <v>37.29966860867469</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.82284866833704</v>
+        <v>23.78011349783368</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>20.91377338537181</v>
+        <v>21.241717156517</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.44658696026348</v>
+        <v>39.86265929358687</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>46.00775961876903</v>
+        <v>45.33249138718519</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.242269481908853</v>
+        <v>7.58118918295154</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.09531534698966</v>
+        <v>16.34307398284561</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.12978621550521</v>
+        <v>24.04913184160832</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11.90688698467101</v>
+        <v>12.04218196473686</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.66345509362649</v>
+        <v>20.94974141072224</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.49062208587839</v>
+        <v>31.87091427195328</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>7.292789155227222</v>
+        <v>7.326921174114087</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.234694267479</v>
+        <v>12.04123672127686</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>16.92924400605206</v>
+        <v>16.81679574542125</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.453515342749846</v>
+        <v>3.861950043122896</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.34964456986989</v>
+        <v>18.80872882995988</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.19080061945092</v>
+        <v>32.42394539984083</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.18446198400756</v>
+        <v>21.45214146921342</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>44.9586659520854</v>
+        <v>44.12964842625371</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>51.84487060541973</v>
+        <v>50.8698755988575</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6.25004550034464</v>
+        <v>6.8283173388253</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>17.86293794759289</v>
+        <v>18.00114265961781</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.81522512852604</v>
+        <v>26.97391784882998</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>59.64095076176388</v>
+        <v>59.11217134283155</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.03645029530729</v>
+        <v>52.21346622928964</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>64.53587499991008</v>
+        <v>63.53334744987995</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>67.75617280406864</v>
+        <v>66.49004384953868</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.53181110353162</v>
+        <v>19.3667727301949</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>58.9941094935748</v>
+        <v>58.24578149719497</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61.90358218680811</v>
+        <v>61.20050639380289</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.32159887182824</v>
+        <v>24.36177460057164</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.26281721525377</v>
+        <v>38.06494827713796</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.13231185546377</v>
+        <v>43.62053416940715</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.914289522197663</v>
+        <v>9.057272009832236</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.41970403819962</v>
+        <v>38.7149508936057</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.7388002354778</v>
+        <v>47.06324845493603</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.554211728197156</v>
+        <v>8.348917270668789</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>60.98284888699604</v>
+        <v>60.29554042199302</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>70.53736916636394</v>
+        <v>69.35352971736027</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>70.11268947280762</v>
+        <v>69.70962265190664</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.54822748590963</v>
+        <v>79.68606449788793</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>86.44896135103754</v>
+        <v>84.66305539562347</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.33942688731415</v>
+        <v>26.5145184323652</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>74.99575566004735</v>
+        <v>73.52122087147588</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.08953246512918</v>
+        <v>76.18482808099054</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>63.44183491143485</v>
+        <v>62.5942867226624</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>40.50405380123859</v>
+        <v>40.11991559602121</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>49.86766698832277</v>
+        <v>49.32858872270602</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>65.96126988333002</v>
+        <v>64.96574691876555</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.4620602264753</v>
+        <v>11.66286464507539</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>51.39677360656995</v>
+        <v>51.00365878610783</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.03695485651855</v>
+        <v>15.40072201444133</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.54482138824935</v>
+        <v>33.66277330608161</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>43.17745674060964</v>
+        <v>42.96108988067701</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>7.910306262016515</v>
+        <v>7.959556632326713</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>36.91909660430647</v>
+        <v>36.65756216079119</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>46.87953809102967</v>
+        <v>46.31848128968078</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6.756876598966624</v>
+        <v>7.326488861027006</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>56.76754992002125</v>
+        <v>56.40623859805451</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>74.45732847428768</v>
+        <v>73.31599002799923</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>65.0963259884213</v>
+        <v>64.56912170059606</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>74.63592084495141</v>
+        <v>73.72966843157656</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>87.65332852940483</v>
+        <v>86.22886568472659</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15.63521939362039</v>
+        <v>15.873487301457</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>64.18835079276356</v>
+        <v>63.56977093697932</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>74.08723273043753</v>
+        <v>73.21126533086507</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>56.90549354038998</v>
+        <v>56.35168394056389</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.57709486804877</v>
+        <v>25.72214829704603</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.7056667155639</v>
+        <v>32.7732163004772</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>47.69882449137334</v>
+        <v>47.57975533760124</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>8.654696213182753</v>
+        <v>8.874443714819606</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.98053034758787</v>
+        <v>44.41393883605407</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>54.14304330392864</v>
+        <v>53.7970252957081</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12.16681818545529</v>
+        <v>12.35406292922966</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.85834603465776</v>
+        <v>32.00316407931964</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>45.51453770938082</v>
+        <v>45.27701825970244</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>8.747815666856834</v>
+        <v>8.837955676044157</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.57005189897408</v>
+        <v>34.01483406810799</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>50.29356864890462</v>
+        <v>49.42056342668056</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.21096006487997</v>
+        <v>3.68627814518689</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.35988950554557</v>
+        <v>49.88468013674832</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>73.396444387654</v>
+        <v>72.14830086707796</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.23133704588212</v>
+        <v>54.55914812310135</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>66.7344060439699</v>
+        <v>65.5331085148041</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>86.79849991786209</v>
+        <v>85.07154379519172</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>12.61156798375008</v>
+        <v>12.86315032918821</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>60.50649783189566</v>
+        <v>59.22872333130817</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>75.87990465868106</v>
+        <v>74.69450940099281</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>18.11799454065402</v>
+        <v>17.62008817644258</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24.85928703296501</v>
+        <v>23.68830373602784</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>39.33366482237823</v>
+        <v>35.79816844145842</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>5.843269046705771</v>
+        <v>7.162015262247746</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.91333736128328</v>
+        <v>27.95467962966807</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>36.68876770435421</v>
+        <v>32.54531664509159</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>9.278677648219329</v>
+        <v>10.32814614859392</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>58.75323005784455</v>
+        <v>51.58723181336659</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>62.04835778332003</v>
+        <v>54.45778509419291</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.90001447826378</v>
+        <v>25.17045524470636</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.19248302441853</v>
+        <v>28.64928901972816</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.54750620480831</v>
+        <v>29.6986797112256</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>19.4072538536481</v>
+        <v>19.04900029516453</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>26.46318703572924</v>
+        <v>24.73838441551159</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>48.89464543876605</v>
+        <v>43.16585030103253</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.88127904849971</v>
+        <v>17.90122751737389</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.36698154013084</v>
+        <v>32.47346682856912</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>37.35990266186511</v>
+        <v>36.10285444236029</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>4.663444037026277</v>
+        <v>6.160845187443101</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17.9955815752346</v>
+        <v>17.87723949385606</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>22.41314308887811</v>
+        <v>21.80124146743211</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>7.036002938319037</v>
+        <v>8.065699986679178</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.37559902472474</v>
+        <v>32.35600358078462</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.95365615552133</v>
+        <v>27.59359934003541</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>42.85314339885172</v>
+        <v>38.67805386328947</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>42.43068265390156</v>
+        <v>38.31582786408865</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>6.560153841240155</v>
+        <v>7.832009488455327</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>44.48126472065695</v>
+        <v>40.23741877024317</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>45.29089483984212</v>
+        <v>41.20755508766007</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>9.458829405596962</v>
+        <v>10.40058909737931</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>65.82876632781257</v>
+        <v>58.38948051586974</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>62.82500714161819</v>
+        <v>56.05831636222497</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>56.24831051056806</v>
+        <v>51.055650509795</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>63.74290304413009</v>
+        <v>57.46635607028324</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>62.65111221437724</v>
+        <v>56.94914709154337</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>32.62327887604634</v>
+        <v>29.76215590224882</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>55.37888139085456</v>
+        <v>50.23143475741239</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>58.94086377857052</v>
+        <v>53.0733804673163</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.72757775962258</v>
+        <v>24.51739628916276</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.25340311939149</v>
+        <v>39.12952836138196</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>41.52658771403163</v>
+        <v>39.93039978834842</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>5.154623042151147</v>
+        <v>6.8740544488059</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.98827831837185</v>
+        <v>34.94657227577535</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>39.59018484857508</v>
+        <v>38.50847785167013</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>7.288464333805781</v>
+        <v>8.483375692705586</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>58.33286229125191</v>
+        <v>55.30396037164634</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>9.087720543764195</v>
+        <v>10.23034878265857</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.27610811301367</v>
+        <v>26.44843187048735</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>34.31194323063269</v>
+        <v>31.7086286359088</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>5.166785263146966</v>
+        <v>6.707485843972762</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>43.33895553414941</v>
+        <v>38.9674260914843</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>43.44445103244207</v>
+        <v>39.34300268744769</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7.679863369011166</v>
+        <v>9.708085782777168</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>62.54771081226747</v>
+        <v>55.62246164015152</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>62.7043740412951</v>
+        <v>56.1986680142688</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>69.79340398194817</v>
+        <v>61.61330137828857</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>77.46069971458043</v>
+        <v>68.23851149540913</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>72.40208502358611</v>
+        <v>65.24849917729668</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6.875100244219098</v>
+        <v>8.6072882319678</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>32.61200288546947</v>
+        <v>30.61785461627351</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>41.84987904453703</v>
+        <v>38.44124640790689</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.04278407487242</v>
+        <v>16.70583792202961</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>38.58637845863632</v>
+        <v>36.26927039448668</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>40.23821755343096</v>
+        <v>38.78354694180894</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>5.195371937282701</v>
+        <v>6.76480902621087</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.27737210526</v>
+        <v>32.27742726992296</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.42586004871308</v>
+        <v>39.06001912557964</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>7.572620430726335</v>
+        <v>8.739093470517137</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>55.72917931696639</v>
+        <v>51.31578436919334</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>7.841238683738954</v>
+        <v>9.204411425000906</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>24.15648540974061</v>
+        <v>23.05128021739163</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>35.39060862130687</v>
+        <v>32.50422464024814</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>5.955040668674719</v>
+        <v>7.03232573587346</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>43.57728744886306</v>
+        <v>38.61314576085331</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>49.92547222203956</v>
+        <v>44.86451343216941</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>6.124431158008367</v>
+        <v>7.305831677224489</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>65.2894486127983</v>
+        <v>57.1847055418162</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>66.9173782541809</v>
+        <v>59.24022430668017</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>63.88747303489897</v>
+        <v>56.28107771175824</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>69.67739590498753</v>
+        <v>61.24479429670907</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>72.68120891539758</v>
+        <v>64.58643475441126</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>7.539571281078057</v>
+        <v>9.070517771209481</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.11874516158367</v>
+        <v>30.91368637191173</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>47.12969374219686</v>
+        <v>42.94851242375444</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>12.4500972396381</v>
+        <v>13.02761816182652</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.43866743545378</v>
+        <v>33.24717311889081</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>40.42166551133034</v>
+        <v>38.54024816120065</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>5.45233940564454</v>
+        <v>6.91381885214896</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.56778274834991</v>
+        <v>30.56109439624823</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>41.36117587683368</v>
+        <v>39.30990595379849</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>6.595513473425228</v>
+        <v>7.601868624746242</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>50.2859924181741</v>
+        <v>46.24420859848404</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>34.21779941231992</v>
+        <v>32.81247132993155</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.16521979323625</v>
+        <v>28.92991323506608</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>43.92709455100992</v>
+        <v>42.3324067890667</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>49.41788266034204</v>
+        <v>46.83737918687241</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.62947364439759</v>
+        <v>13.83580898477409</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.28325133035624</v>
+        <v>27.58664892388553</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>37.26556912086303</v>
+        <v>35.04957670136154</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>15.14863475136249</v>
+        <v>15.99944493503578</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.28167517303831</v>
+        <v>30.40631795067285</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>39.19510083274206</v>
+        <v>37.59335677976998</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>5.482713613556317</v>
+        <v>6.585893882878004</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>15.32134595257548</v>
+        <v>15.46064033035554</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.75803488072824</v>
+        <v>23.46045916040649</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7.979929147123801</v>
+        <v>8.746405218464062</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.72382585477842</v>
+        <v>32.38328607923841</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>56.16919730696422</v>
+        <v>51.31918321437816</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.83555136677894</v>
+        <v>32.11213437694384</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>53.5429900623691</v>
+        <v>50.57970960065848</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>59.96751145732884</v>
+        <v>56.43564621838038</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>12.00879553648933</v>
+        <v>12.51064813037659</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.79421593302587</v>
+        <v>29.25438471985096</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>44.03325193664595</v>
+        <v>40.83878232800859</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>64.70458921435616</v>
+        <v>61.32403928046206</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>60.58561277131226</v>
+        <v>57.01319598233525</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>68.62550697581295</v>
+        <v>64.91643267555864</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>69.42448470220234</v>
+        <v>65.42791596265819</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.0246838585919</v>
+        <v>23.90565273202489</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>64.21773188308099</v>
+        <v>60.85005211656171</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>65.32599325454359</v>
+        <v>62.23226963990517</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.04066598576667</v>
+        <v>27.50256462307073</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>43.76822203455212</v>
+        <v>42.2006583875809</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>44.75043268334338</v>
+        <v>43.76173578405742</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>5.81542191630696</v>
+        <v>7.424283172694032</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.09688222146355</v>
+        <v>42.48888966170433</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>44.56036392440421</v>
+        <v>43.86350570405811</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>7.542790428854964</v>
+        <v>9.463364010953956</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>67.16587750283961</v>
+        <v>64.30673141362105</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>69.15410135033508</v>
+        <v>66.47076631481006</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>72.78077744166895</v>
+        <v>69.88884271346801</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>78.07693745160223</v>
+        <v>75.33496673408142</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>78.73984076184917</v>
+        <v>76.19487434099689</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.73671738226706</v>
+        <v>28.73007031798858</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>74.56695960742043</v>
+        <v>71.88560208698172</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>76.00455800156988</v>
+        <v>73.05864444422593</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>63.83982409198202</v>
+        <v>61.01456592565442</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>55.59433993513231</v>
+        <v>51.23206892913791</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>64.96219714042691</v>
+        <v>60.06831087402999</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>68.30574849050291</v>
+        <v>64.86440190695758</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.15092402157338</v>
+        <v>15.1240133297505</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>60.5367882155391</v>
+        <v>56.6827436050975</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>62.2496449566579</v>
+        <v>59.34574316372108</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.82592936514992</v>
+        <v>17.34748821084193</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.87112225069291</v>
+        <v>37.77722127908758</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>41.73080396969838</v>
+        <v>41.44993277763767</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>4.963784562347776</v>
+        <v>6.591485526093862</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.62498841711109</v>
+        <v>41.31808732863652</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>43.42512693524554</v>
+        <v>42.69158492172677</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.577758273899672</v>
+        <v>9.039625412858776</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>66.02931609764333</v>
+        <v>62.08437514167525</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>70.02820220179214</v>
+        <v>67.52357579324138</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>74.17849074578767</v>
+        <v>69.8103000394302</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>79.82861737557512</v>
+        <v>75.44722165440038</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>82.61489827444258</v>
+        <v>79.47032629606952</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>13.35482363132576</v>
+        <v>14.98729678048623</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>72.76252757593495</v>
+        <v>69.29860339250722</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>75.20368824620857</v>
+        <v>72.24884700330502</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>64.71067433363363</v>
+        <v>60.72284396625997</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>37.33377726702594</v>
+        <v>35.16043766453485</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>47.95085341490422</v>
+        <v>44.67929410121862</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>56.08850405442611</v>
+        <v>52.81942151215978</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12.1801057949342</v>
+        <v>12.65219533835725</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>56.70560842640802</v>
+        <v>52.05789448285039</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>64.03367733156828</v>
+        <v>59.89772905615109</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>11.88437146800119</v>
+        <v>13.20825346015642</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.90187457545159</v>
+        <v>37.33074748127903</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>44.49936945960215</v>
+        <v>43.74805235183204</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>5.159230907432498</v>
+        <v>6.871629260268321</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>40.90635072435284</v>
+        <v>39.06781849384645</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>47.59774571203428</v>
+        <v>46.19687687082953</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>5.36737680956465</v>
+        <v>7.0068166154424</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>61.79022005294294</v>
+        <v>58.27445249628553</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>71.0667124623677</v>
+        <v>68.2533795630423</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.81350668641798</v>
+        <v>63.06290055910989</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>75.2133728320803</v>
+        <v>71.31239403401091</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>82.23172942571053</v>
+        <v>78.87477595203309</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>10.69755184751432</v>
+        <v>12.43579636748423</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>70.28495687280565</v>
+        <v>66.53986682062512</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>77.29627446941245</v>
+        <v>73.99737357631604</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>13.83642478018807</v>
+        <v>14.31413115645627</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.44906455270359</v>
+        <v>14.91115481527029</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.78692023851323</v>
+        <v>23.58980954444984</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>3.397970971964664</v>
+        <v>4.067424245170148</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>14.88561549471427</v>
+        <v>16.35569231264368</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>17.04226625001353</v>
+        <v>18.56238514453835</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>8.328322358429851</v>
+        <v>8.719115332868881</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.8070804607122</v>
+        <v>30.38585962422497</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.99228465493919</v>
+        <v>31.60373317397638</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>14.52524190240751</v>
+        <v>15.15620822378815</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>18.34994023671226</v>
+        <v>18.79718429251876</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.66317270559853</v>
+        <v>19.96328164346821</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.59533693384575</v>
+        <v>21.73669524880208</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.50222880826859</v>
+        <v>20.33984508845056</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.04843672299742</v>
+        <v>34.60551737634013</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>11.54844234482167</v>
+        <v>12.17216865402143</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.11644259621198</v>
+        <v>23.39141129474012</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>33.23594632975318</v>
+        <v>33.20671039705789</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>3.826378036818991</v>
+        <v>4.796651009660771</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>8.853583544828755</v>
+        <v>10.25314508690611</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>11.24173947655882</v>
+        <v>12.66877322278223</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>3.134181947391561</v>
+        <v>3.676135600978998</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.84891645272499</v>
+        <v>16.92749752790753</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>18.66410352745577</v>
+        <v>19.32316974489185</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.11460825507025</v>
+        <v>23.80371310405867</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.24407944222187</v>
+        <v>24.08070323927581</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>3.274215681093242</v>
+        <v>3.907995407467183</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.30195527997715</v>
+        <v>27.45441106593736</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>27.70783128359796</v>
+        <v>28.64895908329559</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>7.619338343423941</v>
+        <v>8.134018143235579</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>35.9326016536353</v>
+        <v>36.94108402243059</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>36.05241448122045</v>
+        <v>37.02387873895695</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.95316360565791</v>
+        <v>39.53126797054198</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.42118898600009</v>
+        <v>44.65987563081561</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>46.05563904789441</v>
+        <v>46.29203521381545</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.95032824410922</v>
+        <v>31.29731347430561</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.7193864695181</v>
+        <v>44.84105170499898</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>45.86031856081621</v>
+        <v>46.08200546608666</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>15.63158340612268</v>
+        <v>16.52105486873435</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.82941891399428</v>
+        <v>30.99881303150675</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.38945565767459</v>
+        <v>36.1120261327954</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>4.34803050147184</v>
+        <v>5.60935613942646</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.2127981922334</v>
+        <v>30.68856618864593</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>40.07771895945881</v>
+        <v>39.79277222384372</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>4.853844656619287</v>
+        <v>5.679991015025465</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>48.86558779894782</v>
+        <v>48.42754145353786</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.727215378523155</v>
+        <v>9.17081662629883</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>18.31668860756457</v>
+        <v>18.89359581941622</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>21.17699120756446</v>
+        <v>22.09293884738862</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.051797775231584</v>
+        <v>2.860251425740039</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.50293297299649</v>
+        <v>27.57344383240998</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.90321029204005</v>
+        <v>29.01178606671128</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.191293740668893</v>
+        <v>7.977317144517929</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>38.93569989418283</v>
+        <v>39.87809395869581</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>41.38886403034071</v>
+        <v>42.18791644442718</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>42.50043564458701</v>
+        <v>43.4493437118591</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>44.29488435212596</v>
+        <v>45.22075505665215</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>49.46093244778146</v>
+        <v>50.10020957817733</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>15.81870871486976</v>
+        <v>15.26598666008979</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.97179422253149</v>
+        <v>32.75681597830585</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>39.63251697038858</v>
+        <v>39.59736952862868</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.653999418974102</v>
+        <v>9.737762552290008</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>27.49266251901422</v>
+        <v>27.9333325670612</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>35.61909543792093</v>
+        <v>35.3092217442281</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3.997722422678738</v>
+        <v>5.086003594592416</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.23857013834579</v>
+        <v>22.51599867413706</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.40115344260251</v>
+        <v>38.31162756148368</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>4.041899500006284</v>
+        <v>4.830107889497569</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>36.06446958447136</v>
+        <v>37.0331825133162</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.679423252874784</v>
+        <v>7.054612909513022</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>13.38570446296851</v>
+        <v>14.26921373008884</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>19.1902094817993</v>
+        <v>20.22098904735521</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>2.273375837154731</v>
+        <v>3.084159852141095</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.23041974704177</v>
+        <v>23.86641992978867</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.94135403116376</v>
+        <v>30.24761174140885</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>3.777671543988426</v>
+        <v>4.263138314867913</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.90537574522975</v>
+        <v>36.0802322204288</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>38.86437019684491</v>
+        <v>39.96273794077712</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.14814777080129</v>
+        <v>36.48771821360225</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>37.53643874705323</v>
+        <v>38.85728861981876</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>42.75298655806567</v>
+        <v>44.04474536117011</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>15.54905590131444</v>
+        <v>14.9927566956278</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.41074573662148</v>
+        <v>29.12535187877908</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>39.94040118938192</v>
+        <v>40.29394240007964</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>6.487908354139247</v>
+        <v>7.49017109913736</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.58657032792854</v>
+        <v>23.2421844540193</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.7343028413906</v>
+        <v>32.79082611467601</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>4.344943616508971</v>
+        <v>5.47627816688756</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>20.24353537679647</v>
+        <v>21.60803586005248</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>37.62152508730201</v>
+        <v>37.60759020029758</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>2.500013595689865</v>
+        <v>3.162282138664459</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.21973780137254</v>
+        <v>32.26756014905141</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.9028965972227</v>
+        <v>20.86470713885516</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.17084259065478</v>
+        <v>19.83049199283814</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.55996516830881</v>
+        <v>36.55528542507342</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>43.14188081234064</v>
+        <v>42.65559007194548</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>5.326619239605389</v>
+        <v>6.251351066142643</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.03528325471141</v>
+        <v>13.97148133030457</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.58422514432452</v>
+        <v>21.37253896382742</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.78315968074789</v>
+        <v>12.20489576862558</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.12317650299408</v>
+        <v>21.42080610588301</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.58252415375507</v>
+        <v>30.6987045926834</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>3.698691967742366</v>
+        <v>4.802741661703674</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>7.870630845802467</v>
+        <v>9.131732953727951</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>11.99201756515118</v>
+        <v>13.49092441687472</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>3.351697005621379</v>
+        <v>3.853236390402518</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16.74755289276495</v>
+        <v>17.85123155588916</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.15462350527291</v>
+        <v>29.88527227314843</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.18325818266343</v>
+        <v>20.83078525452207</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.67677340181714</v>
+        <v>40.14176765937633</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.59932282573984</v>
+        <v>46.8940170611554</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>6.069143811269278</v>
+        <v>6.809722543402771</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>16.32224802276593</v>
+        <v>17.16572083532788</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>24.18691491505167</v>
+        <v>25.47229870600592</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>59.24335520415933</v>
+        <v>58.33535737685892</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>51.05441849857577</v>
+        <v>50.63460828169792</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>63.16870531563939</v>
+        <v>62.09553901094085</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>65.59382903332207</v>
+        <v>64.28886107504071</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.32699174468281</v>
+        <v>16.39171029245524</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>58.5871315548176</v>
+        <v>57.54720353941087</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>62.51671779978606</v>
+        <v>61.17541664731412</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.09997909673208</v>
+        <v>24.26901659483711</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.46504756035122</v>
+        <v>38.15570260204142</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>43.99818939141208</v>
+        <v>43.40438517901251</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>6.046912982575918</v>
+        <v>7.1477821717532</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.32392855006932</v>
+        <v>36.87765622551025</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>45.97846734914291</v>
+        <v>45.6345626751236</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9.578830576679213</v>
+        <v>9.934464351040223</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>61.86161200386834</v>
+        <v>61.07854398568551</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>68.80746344582226</v>
+        <v>67.73162014060711</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>71.96029790858721</v>
+        <v>71.12441251390698</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>79.86653796271135</v>
+        <v>78.84194357525143</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>85.06262887154047</v>
+        <v>83.22306540044147</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.57979366769473</v>
+        <v>28.65491834761628</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>75.40859138751594</v>
+        <v>73.70749895327816</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>78.71165726783559</v>
+        <v>77.13668613389639</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>61.70406400020534</v>
+        <v>60.81032155797865</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.49627708177451</v>
+        <v>36.64572171466095</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>46.93562462811961</v>
+        <v>46.96410049538336</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>64.24034163284718</v>
+        <v>63.02447272753395</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>7.53576364417237</v>
+        <v>8.958481819304492</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.10607520877871</v>
+        <v>48.0891553051913</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>57.63915151098723</v>
+        <v>56.76643582139812</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>14.27568467973752</v>
+        <v>14.93453162710003</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.23580867705078</v>
+        <v>33.33745890141116</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>42.95520320073695</v>
+        <v>42.62493878538559</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>4.488606034553339</v>
+        <v>5.637575825923459</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.52162913275303</v>
+        <v>34.29733667330354</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>45.40685728431924</v>
+        <v>45.19640460147586</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>6.685767263126841</v>
+        <v>7.357496792986559</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>54.52367452367811</v>
+        <v>54.65229851322876</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>72.3591780203955</v>
+        <v>71.34795464453346</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>63.26243939118689</v>
+        <v>63.20591720036872</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>72.59411259414584</v>
+        <v>72.01477671495017</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>86.23326435086614</v>
+        <v>84.89216273562928</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>16.13484983347711</v>
+        <v>16.51379310475003</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>64.54120185347691</v>
+        <v>63.86573133679066</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>75.62529115057977</v>
+        <v>74.08564783368686</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>55.98030554129635</v>
+        <v>55.23619483721505</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.25654880747661</v>
+        <v>23.34667598116113</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.63819156890765</v>
+        <v>30.36958590835771</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>45.95439979864954</v>
+        <v>45.56271763792276</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>5.927620179451921</v>
+        <v>6.862321673633403</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.14405077772978</v>
+        <v>38.77985968757348</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>52.495239415777</v>
+        <v>52.00453573531706</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.96289852046365</v>
+        <v>11.59978149770304</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.37367818637995</v>
+        <v>31.50453040672007</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>43.84802029357833</v>
+        <v>43.77710361148695</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>4.991718354352443</v>
+        <v>6.21641539097914</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.94834812438898</v>
+        <v>31.58968266657022</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>46.63988966674786</v>
+        <v>46.50717686652186</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>3.266947757875741</v>
+        <v>3.859747196394213</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>47.96355026586076</v>
+        <v>48.30040259415863</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>70.78024002076172</v>
+        <v>69.83593080825256</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>52.18679434732405</v>
+        <v>52.64585072109809</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>63.21829192258167</v>
+        <v>63.08328298609023</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>83.12955689676836</v>
+        <v>81.99796484440701</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>11.88040254201639</v>
+        <v>12.38606927315004</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>58.67335957197974</v>
+        <v>58.11450308108612</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>74.35371522546724</v>
+        <v>73.50718265732804</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>15.48627293726588</v>
+        <v>16.5645656896842</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>17.01471973040433</v>
+        <v>17.83540538514952</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.67063514846007</v>
+        <v>24.03624575962794</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.606611070024947</v>
+        <v>8.730249129974609</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>15.29666008657538</v>
+        <v>17.46111402470907</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.55098655263245</v>
+        <v>18.95099979222665</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.56240800035389</v>
+        <v>12.37034558232746</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.94438214832742</v>
+        <v>28.49903692303189</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>27.42471624216654</v>
+        <v>29.88347284181086</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.41427789988668</v>
+        <v>17.62356443202432</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.86744342337351</v>
+        <v>20.82495274093279</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.37703159412624</v>
+        <v>21.98119841437661</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>18.19069460486649</v>
+        <v>19.79125317019951</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>18.19168784630983</v>
+        <v>19.4134118399896</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>26.03367495004462</v>
+        <v>28.78611747312835</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>14.93022820636775</v>
+        <v>15.8088690260266</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.37787036381897</v>
+        <v>25.53914718790729</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.62994637614082</v>
+        <v>32.54790584377724</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.090624113181526</v>
+        <v>8.540044457472924</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>11.88002238597266</v>
+        <v>13.58587195006707</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>14.47781317057186</v>
+        <v>15.99132020589034</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.639523644812392</v>
+        <v>8.644468678098882</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.32029169806889</v>
+        <v>21.11995322414785</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>19.02937920019554</v>
+        <v>20.34512898565004</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.52489761669655</v>
+        <v>24.65874119736108</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.83413400364677</v>
+        <v>24.28123108966287</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>7.550426836945295</v>
+        <v>8.640650124985815</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.66568876710898</v>
+        <v>26.46804467014431</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>26.4441800548457</v>
+        <v>27.83922611618513</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>10.658895852673</v>
+        <v>11.72394710490111</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.25995893513297</v>
+        <v>34.78901030987001</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>32.85138196232298</v>
+        <v>34.45875169053185</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>35.22436590075109</v>
+        <v>36.29723663360356</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>40.36261807486869</v>
+        <v>40.90214905388524</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>41.30763513647618</v>
+        <v>41.95202697481307</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.07020978935112</v>
+        <v>25.43450265269414</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.21098882487165</v>
+        <v>37.23740398733602</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>36.17787180283139</v>
+        <v>38.2942603833234</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>17.62014605020389</v>
+        <v>18.85834093642514</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.53657148608715</v>
+        <v>31.53285220420069</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.62156121998677</v>
+        <v>35.23021997930648</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>7.714402923734177</v>
+        <v>9.29068698786941</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.8634169085163</v>
+        <v>30.3778035435314</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>37.51235856723837</v>
+        <v>37.169721870799</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>8.549085409841208</v>
+        <v>9.736443542548074</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>47.38563376813632</v>
+        <v>46.34084824170755</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.48030673034751</v>
+        <v>12.41145550916702</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.32523853357809</v>
+        <v>19.59257814578171</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>20.27168918003013</v>
+        <v>21.92710129905812</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>6.470216966873025</v>
+        <v>7.734807491625119</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.92245430230514</v>
+        <v>25.88160064080834</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.88331524463966</v>
+        <v>26.86337817906651</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>10.21064014405612</v>
+        <v>11.56383832965363</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.45693916944881</v>
+        <v>35.35200000515307</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.4517642391449</v>
+        <v>37.23226312700447</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.98266983924483</v>
+        <v>38.79825835111136</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>39.44736812976316</v>
+        <v>40.98021919067489</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>43.10330371866313</v>
+        <v>44.50103010942168</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>13.84750789871078</v>
+        <v>14.67845841428071</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.23441806924212</v>
+        <v>26.85381095494821</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.84575337163602</v>
+        <v>31.89446146603049</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>11.56253344869904</v>
+        <v>13.07560179632922</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.32364850933272</v>
+        <v>28.02320279675171</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.04774016492459</v>
+        <v>34.56808387104282</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>7.079445492399373</v>
+        <v>8.725354433957083</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.00822922487132</v>
+        <v>23.49530489587456</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.45292139500377</v>
+        <v>36.33972283634908</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>8.092902196751336</v>
+        <v>9.41415807083056</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.04203372477772</v>
+        <v>35.26539371373728</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.92618882799286</v>
+        <v>10.85877864050322</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>14.94044205336816</v>
+        <v>16.34836422923345</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.39760654170101</v>
+        <v>21.00965341601382</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>6.522569809610054</v>
+        <v>7.777700515084298</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.61464949203569</v>
+        <v>22.91547089444351</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.13622783086393</v>
+        <v>28.18316609980084</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>7.731081567490943</v>
+        <v>8.733872868712702</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.69761284034038</v>
+        <v>32.71603526130141</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.33564141677801</v>
+        <v>36.15745688791775</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.57600075426448</v>
+        <v>32.9826187306772</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.29529432923412</v>
+        <v>35.45370622276752</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.2534536208049</v>
+        <v>39.44913236671621</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>13.66102293104415</v>
+        <v>14.44908055841109</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.84223367411563</v>
+        <v>25.04784597917262</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.05109978953857</v>
+        <v>32.49636495147041</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>10.18533065826248</v>
+        <v>11.5395242113938</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.87002378225346</v>
+        <v>24.62219805598643</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.70263950941763</v>
+        <v>32.5935525913649</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>7.480935160576696</v>
+        <v>9.048635577967129</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.07541039187925</v>
+        <v>22.61961730641225</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>35.07731529255872</v>
+        <v>35.10870715425767</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>7.05687656374263</v>
+        <v>8.146865217505095</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.84068517221822</v>
+        <v>31.89634432825985</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.49894934816525</v>
+        <v>24.16536546999814</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.01161023816793</v>
+        <v>22.55477167006812</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.91106683248679</v>
+        <v>36.33308971971105</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>42.23022591444585</v>
+        <v>41.06874752005733</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>9.751774682633155</v>
+        <v>11.02200619993953</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.66208880373411</v>
+        <v>18.48194710714977</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.31756674275472</v>
+        <v>24.72975167979153</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>15.26522541636935</v>
+        <v>15.8806166352864</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.19364831523394</v>
+        <v>24.31406847125461</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.46221980147094</v>
+        <v>31.46101395314621</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>6.834617849581598</v>
+        <v>8.413986981618265</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>10.40680759276918</v>
+        <v>12.1760729051209</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.90448047384085</v>
+        <v>15.88674767728432</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>7.824496309299487</v>
+        <v>8.809408274795466</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.68731354334871</v>
+        <v>20.86107043855324</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.71110181682764</v>
+        <v>30.46641404447207</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.04679964937208</v>
+        <v>23.63166142290289</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>39.32755401986179</v>
+        <v>39.27024839545864</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>44.73701531337078</v>
+        <v>44.52504760540192</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>10.28672451177077</v>
+        <v>11.35901719973488</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>18.91467033589675</v>
+        <v>20.04361195121866</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.06343861914379</v>
+        <v>26.5876817536345</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>54.55100722780907</v>
+        <v>53.1716417211092</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.18473826569434</v>
+        <v>47.40610345993057</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>58.29816846615385</v>
+        <v>56.57681186086766</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>59.97773274629828</v>
+        <v>58.00924882529286</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.97742236714548</v>
+        <v>18.4749521077897</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>55.02807095323335</v>
+        <v>53.24116847561766</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>57.37678508830864</v>
+        <v>55.47519624876016</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>24.46611485003538</v>
+        <v>24.92956743829124</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.67989454925392</v>
+        <v>37.13565001374784</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.09584308976351</v>
+        <v>41.29437480545826</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>9.013490383689685</v>
+        <v>10.47654154927951</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.10986360964363</v>
+        <v>35.70252747468293</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.31499993635195</v>
+        <v>42.71838482895733</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>13.07402282198112</v>
+        <v>13.71002776384686</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>57.99313176825414</v>
+        <v>56.49877984877115</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>62.10257175210238</v>
+        <v>60.57657540264407</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>64.7464599567148</v>
+        <v>63.43008564317043</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>72.13592416772514</v>
+        <v>70.13083529274866</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>75.3402641787103</v>
+        <v>72.99038762191742</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.81460362981461</v>
+        <v>29.04248589263464</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>69.4903980984547</v>
+        <v>66.8839361981689</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>71.74564720817118</v>
+        <v>69.15471609121418</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>56.61041684764488</v>
+        <v>55.17605961232368</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>34.79494321829268</v>
+        <v>35.79462260578607</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>45.0919529531172</v>
+        <v>44.72823714259809</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>59.31177995709061</v>
+        <v>57.3362054992927</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.73485344571303</v>
+        <v>12.55216234068532</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>45.74356215540621</v>
+        <v>45.21821291024465</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>54.31380224998807</v>
+        <v>52.67194133270641</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>15.65867750338857</v>
+        <v>16.83586908036609</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>32.30480654375109</v>
+        <v>32.56405714528126</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>40.76042667795414</v>
+        <v>40.31547304613842</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>7.456386762037855</v>
+        <v>9.14060417452033</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.47887747149257</v>
+        <v>33.27768743045018</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.21043449276328</v>
+        <v>42.60863403833203</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>10.09552886816121</v>
+        <v>11.2918022715577</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.35769980955735</v>
+        <v>50.18592055008531</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>64.97297666417836</v>
+        <v>63.46174402531962</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>57.82338486339101</v>
+        <v>57.32106689813257</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>66.3229920182347</v>
+        <v>64.87617893669274</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>76.09087875053564</v>
+        <v>74.19960697569623</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>18.39078687982531</v>
+        <v>18.90426559756438</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>60.64631760045931</v>
+        <v>59.10280081619435</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>69.38364101149089</v>
+        <v>66.93504559383685</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>52.3676374799134</v>
+        <v>51.07010369697557</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>24.19086916047604</v>
+        <v>25.27197386096594</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.90619487183747</v>
+        <v>32.01052054941064</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>44.77565950546155</v>
+        <v>43.54178819673177</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>9.701700196659143</v>
+        <v>11.00610651864417</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.94606991855424</v>
+        <v>37.19039460169404</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>50.04741308735661</v>
+        <v>48.78035631395426</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>13.55439555757591</v>
+        <v>14.67033545980994</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.32881387533148</v>
+        <v>31.41888861573543</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.14510934015065</v>
+        <v>41.63184182459045</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>8.026901622187015</v>
+        <v>9.601100733127897</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.0923920231583</v>
+        <v>31.62553256860021</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>43.57759868526635</v>
+        <v>43.10802525250801</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>7.863370747214152</v>
+        <v>8.832369291595509</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>46.37825311987456</v>
+        <v>46.15059244346774</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>64.52941603689681</v>
+        <v>62.84975966998273</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.03051069503472</v>
+        <v>49.77128394648727</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.97417737777472</v>
+        <v>58.72673580687285</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>74.71207889408835</v>
+        <v>72.66143374880131</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>14.75998769735069</v>
+        <v>15.38747665673025</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>56.27206557185362</v>
+        <v>54.89865200198009</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>68.3015442753543</v>
+        <v>66.47750783271191</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>12.36346489601589</v>
+        <v>12.71528277201811</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>17.8360748152728</v>
+        <v>17.94121841195878</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.86087307448727</v>
+        <v>29.88948475012066</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>2.136455524497567</v>
+        <v>2.890682529689059</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>14.67176202565268</v>
+        <v>15.24404192362034</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.96167466587085</v>
+        <v>18.33000189367682</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>4.676652588010221</v>
+        <v>5.56250989131215</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.55610296208037</v>
+        <v>35.85177385569691</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.11910762052565</v>
+        <v>40.83273837935621</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>20.69394616373745</v>
+        <v>20.29059977362287</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.45452087231403</v>
+        <v>24.10984077211236</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.4641960157008</v>
+        <v>25.05889039891153</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>11.76714143487184</v>
+        <v>12.7155630957885</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.83859033177169</v>
+        <v>18.8065909196616</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.47595054201057</v>
+        <v>31.9358783859161</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>12.2504970098847</v>
+        <v>12.56607189908445</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.04401987174117</v>
+        <v>25.94398474979669</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.65057212828379</v>
+        <v>31.68707525402516</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1.879988172638658</v>
+        <v>2.70358041311906</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>10.63374188908362</v>
+        <v>11.26595812303393</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>12.75896108942906</v>
+        <v>13.46057467722329</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2.588493785940273</v>
+        <v>3.201823893244942</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.98203610003786</v>
+        <v>23.02996823554436</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.34708518002682</v>
+        <v>20.36096004388386</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.01841802642852</v>
+        <v>31.03664119416339</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>33.3826394147622</v>
+        <v>32.15671836657089</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2.986785804938037</v>
+        <v>3.582812806870805</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.8758433042095</v>
+        <v>33.74553538666594</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>36.36745757025485</v>
+        <v>35.21661580866994</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>5.388807342514099</v>
+        <v>6.050497986343995</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.94369307512495</v>
+        <v>49.696082066444</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>51.59102869699475</v>
+        <v>49.38637961527959</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>52.11431926695795</v>
+        <v>49.81301924131174</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>56.81004632686633</v>
+        <v>54.21417002429027</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>58.45105251344649</v>
+        <v>56.01590222184844</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.95342988060232</v>
+        <v>21.32171795406317</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>54.97978095009935</v>
+        <v>52.35573117065299</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>56.76322786164974</v>
+        <v>54.07458525599588</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.65976551869483</v>
+        <v>17.75590708073119</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.91288463942307</v>
+        <v>34.31775216355783</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>36.30620229997905</v>
+        <v>36.12524822734835</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2.363720017775876</v>
+        <v>3.472629209389865</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.03042319526205</v>
+        <v>33.51258944233124</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.90882620616929</v>
+        <v>35.96280896274183</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>3.406612483910894</v>
+        <v>4.436178308120567</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>54.38523312230733</v>
+        <v>53.08715213183535</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>6.127835117532904</v>
+        <v>6.996172874142243</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.16383415447714</v>
+        <v>22.62525076229662</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.42893354491892</v>
+        <v>27.65071435944767</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.283525327353797</v>
+        <v>2.859184896845569</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.92752879934633</v>
+        <v>31.94836369476041</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.04740073566877</v>
+        <v>33.97771467818051</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.06549944239967</v>
+        <v>7.424720405538135</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>51.37074111045224</v>
+        <v>49.19040830116994</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>53.45027401802334</v>
+        <v>51.28703238483563</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>58.03001960110076</v>
+        <v>55.31370209005617</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>59.74660109514808</v>
+        <v>57.18585318043584</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>63.39485235374784</v>
+        <v>60.63467259728439</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>5.75183273372086</v>
+        <v>6.69649661100809</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.38990552074748</v>
+        <v>34.04721262006489</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>41.3761584300179</v>
+        <v>39.87089590287493</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>10.28329215610886</v>
+        <v>10.59029562085561</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.29645766758117</v>
+        <v>31.66705867272598</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.04895431258594</v>
+        <v>35.66536107388939</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>2.991758178844606</v>
+        <v>3.686087148476801</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.16167885366357</v>
+        <v>28.44648070341563</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.20985857283281</v>
+        <v>38.62235724969018</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>5.237928317124329</v>
+        <v>5.775369784438354</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>46.23961347643426</v>
+        <v>44.90102582485639</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.318945852325353</v>
+        <v>5.18165583896603</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.51726168967581</v>
+        <v>16.9839868681044</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>27.49687509418025</v>
+        <v>26.81088419501667</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1.624463386132668</v>
+        <v>2.321949018957213</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>18.71661782464766</v>
+        <v>19.81998654536704</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>37.83263816809463</v>
+        <v>36.70230491706972</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>2.820897350763904</v>
+        <v>3.391469264862074</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>44.86373740029724</v>
+        <v>43.53461348793475</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>53.18186498860004</v>
+        <v>50.97240440228134</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>48.82276918541996</v>
+        <v>46.5052659901513</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.83970620412119</v>
+        <v>50.59609962491196</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>58.94770636355994</v>
+        <v>56.51704867072073</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>6.037263504512502</v>
+        <v>6.890867406431145</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.96835989302183</v>
+        <v>31.79131371468674</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.93641236109487</v>
+        <v>42.32733941234495</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>6.969222490892339</v>
+        <v>7.561700673294389</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.96864858753562</v>
+        <v>26.64131551018323</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.68142665834451</v>
+        <v>33.50322600313166</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>2.494428631367839</v>
+        <v>3.258984832758625</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.0443167636547</v>
+        <v>23.16845347374089</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.04675641319086</v>
+        <v>35.66952500436803</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2.521366928077377</v>
+        <v>3.000436691482555</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.63707172467622</v>
+        <v>37.12224936264231</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.74564177211341</v>
+        <v>24.29710311096286</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.64896265363273</v>
+        <v>22.84625510200194</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.45349604017731</v>
+        <v>36.59036989005349</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.31476889333116</v>
+        <v>41.13507421952664</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.048187773319508</v>
+        <v>7.505564001634887</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>17.59045249827548</v>
+        <v>17.87583490218253</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.52039376085433</v>
+        <v>24.75739470886039</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.10110503075365</v>
+        <v>10.86685118229175</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.88267466408429</v>
+        <v>23.34826603207314</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.21376415581432</v>
+        <v>33.14419775371969</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>2.417477784412217</v>
+        <v>2.859873319935296</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.708987827112697</v>
+        <v>9.358421681943558</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>14.09706481504531</v>
+        <v>14.93352253642924</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.496319496106892</v>
+        <v>3.617162861239155</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.68419864491389</v>
+        <v>22.04862066708184</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.08773459738664</v>
+        <v>38.87168380072614</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.58987186454952</v>
+        <v>25.49850741543721</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>45.7868439022261</v>
+        <v>45.23143989630742</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>51.76875602162723</v>
+        <v>51.11346843871608</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.373186826275951</v>
+        <v>6.960208416643088</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.88060858712491</v>
+        <v>20.37106363433477</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.39210906131439</v>
+        <v>32.22986786448591</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>59.30234692644972</v>
+        <v>58.55581068425141</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>55.63974031230022</v>
+        <v>54.37725014818511</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>65.62514789449502</v>
+        <v>64.29711577327768</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>63.04287218226699</v>
+        <v>62.26459863370599</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.52425388961177</v>
+        <v>15.95677447261979</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>59.80118267531429</v>
+        <v>58.33343884796975</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>62.70160891874978</v>
+        <v>61.58537391807257</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.88112157811216</v>
+        <v>21.48210479460407</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.13021779584876</v>
+        <v>38.84923212698868</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>43.08724899495147</v>
+        <v>43.05425212880805</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>3.747711302118915</v>
+        <v>4.633197203601021</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.24735795465777</v>
+        <v>41.67349051183021</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.9139169786262</v>
+        <v>44.62404025737898</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>5.752359926306767</v>
+        <v>6.793060184309166</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>64.85670716692779</v>
+        <v>63.95264875985521</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>67.48352617005119</v>
+        <v>66.82863329526242</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>75.02405627646442</v>
+        <v>73.65144473990898</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>80.78557127156169</v>
+        <v>79.67470203173762</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>83.59648779153133</v>
+        <v>82.43540907135601</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>18.35619559044054</v>
+        <v>19.99731123822411</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>75.67206940267499</v>
+        <v>74.55304000035511</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>77.43766131515977</v>
+        <v>76.31260556884438</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>61.59596251431518</v>
+        <v>60.68389817800124</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>47.13564111728297</v>
+        <v>45.63827241642616</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>55.93871432397488</v>
+        <v>54.13160913400513</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>63.00888434012116</v>
+        <v>62.17604721531566</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>8.86971833484257</v>
+        <v>9.391142817120983</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>52.90645530833024</v>
+        <v>51.97552028592177</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>59.68548676709739</v>
+        <v>58.5107358341795</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>11.65107546555341</v>
+        <v>12.46288429914089</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.93996388277714</v>
+        <v>34.8478505225717</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.717407728965</v>
+        <v>42.56376186811171</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>2.973914074474511</v>
+        <v>3.844833411907878</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.11209719946763</v>
+        <v>36.82903987996259</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>45.7784707963644</v>
+        <v>45.22912431526213</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>6.093482403643986</v>
+        <v>6.820166793684788</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>57.80881199260666</v>
+        <v>57.22286607515858</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>71.99942166843057</v>
+        <v>71.0501561265673</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>68.85832890670805</v>
+        <v>67.24837463273256</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>77.39160662910187</v>
+        <v>75.96871691467879</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>86.95685022398327</v>
+        <v>85.54328013574114</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>10.50698843326939</v>
+        <v>11.67778091822903</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>68.79091003341203</v>
+        <v>67.7965322240585</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>76.4734590043103</v>
+        <v>75.02016873751926</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>56.01879969847056</v>
+        <v>55.18485447959373</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.18607082059597</v>
+        <v>27.15865903197347</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.37833339632385</v>
+        <v>35.0585920323233</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>45.6586596338044</v>
+        <v>45.29969603626328</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>5.707770692743971</v>
+        <v>6.401641290191591</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.05724451117775</v>
+        <v>30.05105916222972</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>54.30776145989147</v>
+        <v>53.55423773494654</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>7.614182035975869</v>
+        <v>8.761658645391357</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.61067750983682</v>
+        <v>31.77691445715563</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>43.13410962170217</v>
+        <v>43.14852861678516</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>2.495256755621554</v>
+        <v>3.515405297652773</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.9838696089199</v>
+        <v>31.40815003027772</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>45.35966989192138</v>
+        <v>45.0538009374453</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>2.207189916092215</v>
+        <v>3.018166297091827</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>47.94985283308449</v>
+        <v>48.31492663473236</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>70.1748445140968</v>
+        <v>69.33987995546194</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>53.49961525117253</v>
+        <v>53.69741535713791</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>66.04848871325541</v>
+        <v>65.70270561267101</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>84.44958837467577</v>
+        <v>83.09703079618421</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>7.043667117770664</v>
+        <v>8.08817356258546</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>60.58932426822839</v>
+        <v>60.33012636250812</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>77.07272325232479</v>
+        <v>75.86122823873484</v>
       </c>
     </row>
   </sheetData>
